--- a/backend/common/data/中学插班开放时间.xlsx
+++ b/backend/common/data/中学插班开放时间.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15840"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="全表" sheetId="1" r:id="rId1"/>
@@ -20835,11 +20835,11 @@
   <dimension ref="A1:AI445"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V430" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X430" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y446" sqref="Y446"/>
+      <selection pane="bottomRight" activeCell="A442" sqref="A442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
